--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B6F5F9-E085-7E47-9F2F-C0C7D8C7A0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913E2A61-AE0B-FE4A-A0C0-05185DF26A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="18100" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -46,15 +46,30 @@
   <si>
     <t>grade</t>
   </si>
+  <si>
+    <t>Angewandte Statistik und Versuchswesen</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
+    <t>2022/23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,11 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -413,7 +433,734 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913E2A61-AE0B-FE4A-A0C0-05185DF26A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F3A2E-4DC4-764F-B653-19B8156E5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18100" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="6500" yWindow="1400" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>2022/23</t>
+  </si>
+  <si>
+    <t>Spezielle Statistik und Versuchswesen</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,6 +1162,336 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F3A2E-4DC4-764F-B653-19B8156E5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9058A-3BFB-3641-AC67-911912FD5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="1400" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="20840" yWindow="3120" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="8">
   <si>
     <t>year</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Spezielle Statistik und Versuchswesen</t>
+  </si>
+  <si>
+    <t>Mathematik und Statistik</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,6 +1495,1876 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9058A-3BFB-3641-AC67-911912FD5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9185E3E-8161-AA4B-BEDA-7DE706604563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="3120" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="21440" yWindow="2060" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Mathematik und Statistik</t>
+  </si>
+  <si>
+    <t>Angewandte Statistik für Bioverfahrenstechnik</t>
+  </si>
+  <si>
+    <t>Biostatistik</t>
   </si>
 </sst>
 </file>
@@ -417,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:A267"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3365,6 +3371,1084 @@
         <v>5</v>
       </c>
     </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>2022</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>2022</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>2022</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>2022</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>2022</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>2022</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>2022</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>2022</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>2022</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>2022</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2022</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>2022</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>2022</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>2022</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>2022</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>2022</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>2022</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>2022</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2022</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2022</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>2022</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2022</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2022</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>2022</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2022</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>2022</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2022</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>2022</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2022</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2022</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2022</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2022</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>2022</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2022</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2022</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>2022</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2022</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2022</v>
+      </c>
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>2022</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>2022</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>2022</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>2022</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2022</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>2022</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>2022</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2022</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2022</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2022</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2022</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2022</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2022</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2022</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>2022</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>2022</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>2022</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>2022</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>2022</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>2022</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>2022</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2022</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>2022</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>2022</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>2022</v>
+      </c>
+      <c r="B335" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>2022</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>2022</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>2022</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>2022</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>2022</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>2022</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>2022</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>2022</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>2022</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2022</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>2022</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>2022</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>2022</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>2022</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>2022</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>2022</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2022</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2022</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>2022</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2022</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>2022</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>2022</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>2022</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>2022</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>2022</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>2022</v>
+      </c>
+      <c r="B361" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>2022</v>
+      </c>
+      <c r="B362" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>2022</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>2022</v>
+      </c>
+      <c r="B364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>2022</v>
+      </c>
+      <c r="B365" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9185E3E-8161-AA4B-BEDA-7DE706604563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8606DC-5E2C-304F-9B2E-E1A283288C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="2060" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="8340" yWindow="2340" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4449,6 +4449,303 @@
         <v>1</v>
       </c>
     </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>2023</v>
+      </c>
+      <c r="B366" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>2023</v>
+      </c>
+      <c r="B367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>2023</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>2023</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>2023</v>
+      </c>
+      <c r="B370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2023</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>2023</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>2023</v>
+      </c>
+      <c r="B373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>2023</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>2023</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>2023</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>2023</v>
+      </c>
+      <c r="B377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2023</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>2023</v>
+      </c>
+      <c r="B379" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>2023</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2023</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2023</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>2023</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2023</v>
+      </c>
+      <c r="B384" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>2023</v>
+      </c>
+      <c r="B385" t="s">
+        <v>9</v>
+      </c>
+      <c r="C385">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>2023</v>
+      </c>
+      <c r="B386" t="s">
+        <v>9</v>
+      </c>
+      <c r="C386">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>2023</v>
+      </c>
+      <c r="B387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>2023</v>
+      </c>
+      <c r="B388" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>2023</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>2023</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>2023</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>2023</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8606DC-5E2C-304F-9B2E-E1A283288C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6B245-6DB3-C84B-8AD5-6020457C2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2340" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="17180" yWindow="2060" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="H370" sqref="H370"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="F396" sqref="F396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4746,6 +4746,369 @@
         <v>2</v>
       </c>
     </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>2023</v>
+      </c>
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>2023</v>
+      </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>2023</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>2023</v>
+      </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>2023</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>2023</v>
+      </c>
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>2023</v>
+      </c>
+      <c r="B399" t="s">
+        <v>3</v>
+      </c>
+      <c r="C399">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>2023</v>
+      </c>
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>2023</v>
+      </c>
+      <c r="B401" t="s">
+        <v>3</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>2023</v>
+      </c>
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+      <c r="C402">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>2023</v>
+      </c>
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>2023</v>
+      </c>
+      <c r="B404" t="s">
+        <v>3</v>
+      </c>
+      <c r="C404">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>2023</v>
+      </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>2023</v>
+      </c>
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>2023</v>
+      </c>
+      <c r="B407" t="s">
+        <v>3</v>
+      </c>
+      <c r="C407">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>2023</v>
+      </c>
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
+      <c r="C408">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>2023</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>2023</v>
+      </c>
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>2023</v>
+      </c>
+      <c r="B411" t="s">
+        <v>3</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>2023</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>2023</v>
+      </c>
+      <c r="B413" t="s">
+        <v>3</v>
+      </c>
+      <c r="C413">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>2023</v>
+      </c>
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>2023</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>2023</v>
+      </c>
+      <c r="B416" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>2023</v>
+      </c>
+      <c r="B417" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>2023</v>
+      </c>
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>2023</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
+      <c r="C419">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>2023</v>
+      </c>
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>2023</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>2023</v>
+      </c>
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>2023</v>
+      </c>
+      <c r="B423" t="s">
+        <v>3</v>
+      </c>
+      <c r="C423">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>2023</v>
+      </c>
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>2023</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>1.7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6B245-6DB3-C84B-8AD5-6020457C2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF594F07-6DC8-204E-A680-11AA8FF431F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="2060" windowWidth="28240" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="17760" yWindow="1580" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:C433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="F396" sqref="F396"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5109,6 +5109,94 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>2023</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>2023</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>2023</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>2023</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>2023</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>2023</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>2023</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>2023</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF594F07-6DC8-204E-A680-11AA8FF431F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D592722-E8DF-CE41-9333-065B3E4AFAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="1580" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="K467" sqref="K467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5197,6 +5197,545 @@
         <v>2</v>
       </c>
     </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>2023</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2023</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>2023</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>2023</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>2023</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>2023</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>2023</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>2023</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>2023</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>2023</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>2023</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>2023</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>2023</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>2023</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>2023</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>2023</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>2023</v>
+      </c>
+      <c r="B450" t="s">
+        <v>7</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>2023</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>2023</v>
+      </c>
+      <c r="B452" t="s">
+        <v>7</v>
+      </c>
+      <c r="C452">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>2023</v>
+      </c>
+      <c r="B453" t="s">
+        <v>7</v>
+      </c>
+      <c r="C453">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>2023</v>
+      </c>
+      <c r="B454" t="s">
+        <v>7</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>2023</v>
+      </c>
+      <c r="B455" t="s">
+        <v>7</v>
+      </c>
+      <c r="C455">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>2023</v>
+      </c>
+      <c r="B456" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>2023</v>
+      </c>
+      <c r="B457" t="s">
+        <v>7</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2023</v>
+      </c>
+      <c r="B458" t="s">
+        <v>7</v>
+      </c>
+      <c r="C458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>2023</v>
+      </c>
+      <c r="B459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>2023</v>
+      </c>
+      <c r="B460" t="s">
+        <v>7</v>
+      </c>
+      <c r="C460">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>2023</v>
+      </c>
+      <c r="B461" t="s">
+        <v>7</v>
+      </c>
+      <c r="C461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>2023</v>
+      </c>
+      <c r="B462" t="s">
+        <v>7</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>2023</v>
+      </c>
+      <c r="B463" t="s">
+        <v>7</v>
+      </c>
+      <c r="C463">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>2023</v>
+      </c>
+      <c r="B464" t="s">
+        <v>7</v>
+      </c>
+      <c r="C464">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>2023</v>
+      </c>
+      <c r="B465" t="s">
+        <v>7</v>
+      </c>
+      <c r="C465">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>2023</v>
+      </c>
+      <c r="B466" t="s">
+        <v>7</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>2023</v>
+      </c>
+      <c r="B467" t="s">
+        <v>7</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>2023</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>2023</v>
+      </c>
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C469">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>2023</v>
+      </c>
+      <c r="B470" t="s">
+        <v>7</v>
+      </c>
+      <c r="C470">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>2023</v>
+      </c>
+      <c r="B471" t="s">
+        <v>7</v>
+      </c>
+      <c r="C471">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>2023</v>
+      </c>
+      <c r="B472" t="s">
+        <v>7</v>
+      </c>
+      <c r="C472">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>2023</v>
+      </c>
+      <c r="B473" t="s">
+        <v>7</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>2023</v>
+      </c>
+      <c r="B474" t="s">
+        <v>7</v>
+      </c>
+      <c r="C474">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>2023</v>
+      </c>
+      <c r="B475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>2023</v>
+      </c>
+      <c r="B476" t="s">
+        <v>7</v>
+      </c>
+      <c r="C476">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>2023</v>
+      </c>
+      <c r="B477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C477">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>2023</v>
+      </c>
+      <c r="B478" t="s">
+        <v>7</v>
+      </c>
+      <c r="C478">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>2023</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>2023</v>
+      </c>
+      <c r="B480" t="s">
+        <v>7</v>
+      </c>
+      <c r="C480">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>2023</v>
+      </c>
+      <c r="B481" t="s">
+        <v>7</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>2023</v>
+      </c>
+      <c r="B482" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482">
+        <v>2.7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D592722-E8DF-CE41-9333-065B3E4AFAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB7C41B-1D7C-1A40-97D8-8BA28B02412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="K467" sqref="K467"/>
+      <selection activeCell="H476" sqref="H476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5736,6 +5736,17 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>2023</v>
+      </c>
+      <c r="B483" t="s">
+        <v>7</v>
+      </c>
+      <c r="C483">
+        <v>3.7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/archive/_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB7C41B-1D7C-1A40-97D8-8BA28B02412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913DB2A-7E7E-414A-B4CC-A6311473D4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Biostatistik</t>
+  </si>
+  <si>
+    <t>2023/24</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C483"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="H476" sqref="H476"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,6 +5750,391 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>10</v>
+      </c>
+      <c r="B484" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>10</v>
+      </c>
+      <c r="B486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491" t="s">
+        <v>4</v>
+      </c>
+      <c r="C491">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>10</v>
+      </c>
+      <c r="B493" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" t="s">
+        <v>4</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>10</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>10</v>
+      </c>
+      <c r="B497" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>10</v>
+      </c>
+      <c r="B498" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>10</v>
+      </c>
+      <c r="B499" t="s">
+        <v>4</v>
+      </c>
+      <c r="C499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" t="s">
+        <v>4</v>
+      </c>
+      <c r="C500">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>10</v>
+      </c>
+      <c r="B502" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>10</v>
+      </c>
+      <c r="B503" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>10</v>
+      </c>
+      <c r="B504" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>10</v>
+      </c>
+      <c r="B505" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>10</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>10</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>10</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>10</v>
+      </c>
+      <c r="B509" t="s">
+        <v>4</v>
+      </c>
+      <c r="C509">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>10</v>
+      </c>
+      <c r="B510" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>10</v>
+      </c>
+      <c r="B511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>10</v>
+      </c>
+      <c r="B512" t="s">
+        <v>4</v>
+      </c>
+      <c r="C512">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" t="s">
+        <v>4</v>
+      </c>
+      <c r="C513">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>10</v>
+      </c>
+      <c r="B514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>10</v>
+      </c>
+      <c r="B515" t="s">
+        <v>4</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>10</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>10</v>
+      </c>
+      <c r="B517" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" t="s">
+        <v>4</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913DB2A-7E7E-414A-B4CC-A6311473D4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66719D16-BFC7-8146-B013-C7C175F7F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C518"/>
+  <dimension ref="A1:C525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="B510" sqref="B510"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6135,6 +6135,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>10</v>
+      </c>
+      <c r="B520" t="s">
+        <v>9</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>10</v>
+      </c>
+      <c r="B521" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>10</v>
+      </c>
+      <c r="B522" t="s">
+        <v>3</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>10</v>
+      </c>
+      <c r="B523" t="s">
+        <v>3</v>
+      </c>
+      <c r="C523">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>10</v>
+      </c>
+      <c r="B524" t="s">
+        <v>3</v>
+      </c>
+      <c r="C524">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>10</v>
+      </c>
+      <c r="B525" t="s">
+        <v>3</v>
+      </c>
+      <c r="C525">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66719D16-BFC7-8146-B013-C7C175F7F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C886FBD-C03B-7D42-B925-799EEABE18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C525"/>
+  <dimension ref="A1:C726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="B529" sqref="B529"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="A517" sqref="A517:A726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6212,6 +6212,2217 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>10</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>10</v>
+      </c>
+      <c r="B527" t="s">
+        <v>7</v>
+      </c>
+      <c r="C527">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>10</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>10</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>10</v>
+      </c>
+      <c r="B530" t="s">
+        <v>7</v>
+      </c>
+      <c r="C530">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>10</v>
+      </c>
+      <c r="B531" t="s">
+        <v>7</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>10</v>
+      </c>
+      <c r="B532" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>10</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C534">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>10</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>10</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>10</v>
+      </c>
+      <c r="B537" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>10</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>10</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>10</v>
+      </c>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>10</v>
+      </c>
+      <c r="B541" t="s">
+        <v>7</v>
+      </c>
+      <c r="C541">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>10</v>
+      </c>
+      <c r="B542" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>10</v>
+      </c>
+      <c r="B543" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>10</v>
+      </c>
+      <c r="B544" t="s">
+        <v>7</v>
+      </c>
+      <c r="C544">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>10</v>
+      </c>
+      <c r="B545" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>10</v>
+      </c>
+      <c r="B546" t="s">
+        <v>7</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>10</v>
+      </c>
+      <c r="B547" t="s">
+        <v>7</v>
+      </c>
+      <c r="C547">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>10</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>10</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>10</v>
+      </c>
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551" t="s">
+        <v>7</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>10</v>
+      </c>
+      <c r="B552" t="s">
+        <v>7</v>
+      </c>
+      <c r="C552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>10</v>
+      </c>
+      <c r="B553" t="s">
+        <v>7</v>
+      </c>
+      <c r="C553">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>10</v>
+      </c>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>10</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+      <c r="C555">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>10</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+      <c r="C556">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>10</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>10</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>10</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>10</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>10</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>10</v>
+      </c>
+      <c r="B562" t="s">
+        <v>7</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>10</v>
+      </c>
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+      <c r="C563">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>10</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>10</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>10</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+      <c r="C566">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>10</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>10</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>10</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>10</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>10</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>10</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>10</v>
+      </c>
+      <c r="B573" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>10</v>
+      </c>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>10</v>
+      </c>
+      <c r="B575" t="s">
+        <v>7</v>
+      </c>
+      <c r="C575">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>10</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>10</v>
+      </c>
+      <c r="B578" t="s">
+        <v>7</v>
+      </c>
+      <c r="C578">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>10</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>10</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>10</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>10</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>10</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>10</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>10</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>10</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+      <c r="C586">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>10</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>10</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>10</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>10</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+      <c r="C591">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>10</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>10</v>
+      </c>
+      <c r="B593" t="s">
+        <v>7</v>
+      </c>
+      <c r="C593">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>10</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+      <c r="C594">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>10</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>10</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>10</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>10</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>10</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>10</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>10</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>10</v>
+      </c>
+      <c r="B602" t="s">
+        <v>7</v>
+      </c>
+      <c r="C602">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>10</v>
+      </c>
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+      <c r="C603">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>10</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>10</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C605">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+      <c r="C606">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>10</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>10</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C608">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>10</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+      <c r="C609">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610" t="s">
+        <v>7</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611" t="s">
+        <v>7</v>
+      </c>
+      <c r="C611">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>10</v>
+      </c>
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+      <c r="C612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>10</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>10</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>10</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>10</v>
+      </c>
+      <c r="B617" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>10</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>10</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>10</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>10</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+      <c r="C622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>10</v>
+      </c>
+      <c r="B623" t="s">
+        <v>7</v>
+      </c>
+      <c r="C623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>10</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>10</v>
+      </c>
+      <c r="B625" t="s">
+        <v>7</v>
+      </c>
+      <c r="C625">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>10</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>10</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>10</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+      <c r="C628">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>10</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>10</v>
+      </c>
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>10</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>10</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>10</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>10</v>
+      </c>
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>10</v>
+      </c>
+      <c r="B636" t="s">
+        <v>7</v>
+      </c>
+      <c r="C636">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>10</v>
+      </c>
+      <c r="B637" t="s">
+        <v>7</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>10</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>10</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+      <c r="C639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>10</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>10</v>
+      </c>
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" t="s">
+        <v>7</v>
+      </c>
+      <c r="C642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>10</v>
+      </c>
+      <c r="B644" t="s">
+        <v>7</v>
+      </c>
+      <c r="C644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>10</v>
+      </c>
+      <c r="B646" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>10</v>
+      </c>
+      <c r="B647" t="s">
+        <v>7</v>
+      </c>
+      <c r="C647">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>10</v>
+      </c>
+      <c r="B648" t="s">
+        <v>7</v>
+      </c>
+      <c r="C648">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>10</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>10</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" t="s">
+        <v>7</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>10</v>
+      </c>
+      <c r="B652" t="s">
+        <v>7</v>
+      </c>
+      <c r="C652">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+      <c r="C653">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>10</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>10</v>
+      </c>
+      <c r="B657" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>10</v>
+      </c>
+      <c r="B658" t="s">
+        <v>7</v>
+      </c>
+      <c r="C658">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>10</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>10</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>10</v>
+      </c>
+      <c r="B661" t="s">
+        <v>7</v>
+      </c>
+      <c r="C661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>10</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>10</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>10</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>10</v>
+      </c>
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>10</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>10</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>10</v>
+      </c>
+      <c r="B668" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>10</v>
+      </c>
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>10</v>
+      </c>
+      <c r="B670" t="s">
+        <v>7</v>
+      </c>
+      <c r="C670">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>10</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>10</v>
+      </c>
+      <c r="B672" t="s">
+        <v>7</v>
+      </c>
+      <c r="C672">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>10</v>
+      </c>
+      <c r="B673" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>10</v>
+      </c>
+      <c r="B674" t="s">
+        <v>7</v>
+      </c>
+      <c r="C674">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>10</v>
+      </c>
+      <c r="B675" t="s">
+        <v>7</v>
+      </c>
+      <c r="C675">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>10</v>
+      </c>
+      <c r="B677" t="s">
+        <v>7</v>
+      </c>
+      <c r="C677">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>10</v>
+      </c>
+      <c r="B678" t="s">
+        <v>7</v>
+      </c>
+      <c r="C678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>10</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>10</v>
+      </c>
+      <c r="B680" t="s">
+        <v>7</v>
+      </c>
+      <c r="C680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>10</v>
+      </c>
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>10</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>10</v>
+      </c>
+      <c r="B683" t="s">
+        <v>7</v>
+      </c>
+      <c r="C683">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>10</v>
+      </c>
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+      <c r="C684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>10</v>
+      </c>
+      <c r="B685" t="s">
+        <v>7</v>
+      </c>
+      <c r="C685">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>10</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>10</v>
+      </c>
+      <c r="B687" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>10</v>
+      </c>
+      <c r="B688" t="s">
+        <v>7</v>
+      </c>
+      <c r="C688">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>10</v>
+      </c>
+      <c r="B689" t="s">
+        <v>7</v>
+      </c>
+      <c r="C689">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>10</v>
+      </c>
+      <c r="B690" t="s">
+        <v>7</v>
+      </c>
+      <c r="C690">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>10</v>
+      </c>
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+      <c r="C691">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>10</v>
+      </c>
+      <c r="B692" t="s">
+        <v>7</v>
+      </c>
+      <c r="C692">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>10</v>
+      </c>
+      <c r="B693" t="s">
+        <v>7</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>10</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+      <c r="C694">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>10</v>
+      </c>
+      <c r="B695" t="s">
+        <v>7</v>
+      </c>
+      <c r="C695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>10</v>
+      </c>
+      <c r="B696" t="s">
+        <v>7</v>
+      </c>
+      <c r="C696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>10</v>
+      </c>
+      <c r="B697" t="s">
+        <v>7</v>
+      </c>
+      <c r="C697">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>10</v>
+      </c>
+      <c r="B698" t="s">
+        <v>7</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>10</v>
+      </c>
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>10</v>
+      </c>
+      <c r="B700" t="s">
+        <v>7</v>
+      </c>
+      <c r="C700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>10</v>
+      </c>
+      <c r="B701" t="s">
+        <v>7</v>
+      </c>
+      <c r="C701">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>10</v>
+      </c>
+      <c r="B702" t="s">
+        <v>7</v>
+      </c>
+      <c r="C702">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>10</v>
+      </c>
+      <c r="B703" t="s">
+        <v>7</v>
+      </c>
+      <c r="C703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>10</v>
+      </c>
+      <c r="B704" t="s">
+        <v>7</v>
+      </c>
+      <c r="C704">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>10</v>
+      </c>
+      <c r="B705" t="s">
+        <v>7</v>
+      </c>
+      <c r="C705">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>10</v>
+      </c>
+      <c r="B706" t="s">
+        <v>7</v>
+      </c>
+      <c r="C706">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>10</v>
+      </c>
+      <c r="B707" t="s">
+        <v>7</v>
+      </c>
+      <c r="C707">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>10</v>
+      </c>
+      <c r="B708" t="s">
+        <v>7</v>
+      </c>
+      <c r="C708">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>10</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>10</v>
+      </c>
+      <c r="B710" t="s">
+        <v>7</v>
+      </c>
+      <c r="C710">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>10</v>
+      </c>
+      <c r="B711" t="s">
+        <v>7</v>
+      </c>
+      <c r="C711">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>10</v>
+      </c>
+      <c r="B712" t="s">
+        <v>7</v>
+      </c>
+      <c r="C712">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>10</v>
+      </c>
+      <c r="B713" t="s">
+        <v>7</v>
+      </c>
+      <c r="C713">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>10</v>
+      </c>
+      <c r="B714" t="s">
+        <v>7</v>
+      </c>
+      <c r="C714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>10</v>
+      </c>
+      <c r="B715" t="s">
+        <v>7</v>
+      </c>
+      <c r="C715">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>10</v>
+      </c>
+      <c r="B716" t="s">
+        <v>7</v>
+      </c>
+      <c r="C716">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>10</v>
+      </c>
+      <c r="B717" t="s">
+        <v>7</v>
+      </c>
+      <c r="C717">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>10</v>
+      </c>
+      <c r="B718" t="s">
+        <v>7</v>
+      </c>
+      <c r="C718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>10</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>10</v>
+      </c>
+      <c r="B720" t="s">
+        <v>7</v>
+      </c>
+      <c r="C720">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>10</v>
+      </c>
+      <c r="B721" t="s">
+        <v>7</v>
+      </c>
+      <c r="C721">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>10</v>
+      </c>
+      <c r="B722" t="s">
+        <v>7</v>
+      </c>
+      <c r="C722">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>10</v>
+      </c>
+      <c r="B723" t="s">
+        <v>7</v>
+      </c>
+      <c r="C723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>10</v>
+      </c>
+      <c r="B724" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>10</v>
+      </c>
+      <c r="B725" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>10</v>
+      </c>
+      <c r="B726" t="s">
+        <v>7</v>
+      </c>
+      <c r="C726">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\archive\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C886FBD-C03B-7D42-B925-799EEABE18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6001D-C7DE-42AC-93D8-B46C4080CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1880" windowWidth="25380" windowHeight="17240" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -130,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C726"/>
+  <dimension ref="A1:C728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A517" sqref="A517:A726"/>
+    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="C729" sqref="C729"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -558,7 +558,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -613,7 +613,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -778,7 +778,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -822,7 +822,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -921,7 +921,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -932,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -954,7 +954,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2023</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2023</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2023</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2023</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2023</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2023</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2023</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2023</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2023</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2023</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2023</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2023</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2023</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2023</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2023</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2023</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2023</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2023</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2023</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2023</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2023</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2023</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2023</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2023</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2023</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2023</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2023</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2023</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2023</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2023</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2023</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2023</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2023</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2023</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2023</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2023</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2023</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2023</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2023</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2023</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2023</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2023</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2023</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2023</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2023</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2023</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2023</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2023</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2023</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2023</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2023</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2023</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2023</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2023</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2023</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2023</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2023</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2023</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2023</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2023</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2023</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2023</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2023</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2023</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2023</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2023</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2023</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2023</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2023</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2023</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2023</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2023</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2023</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2023</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2023</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2023</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2023</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2023</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2023</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2023</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2023</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2023</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2023</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2023</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2023</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2023</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2023</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2023</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2023</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2023</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2023</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2023</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2023</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2023</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2023</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2023</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2023</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2023</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2023</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2023</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2023</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2023</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2023</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2023</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2023</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2023</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2023</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2023</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2023</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2023</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2023</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>10</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>10</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>10</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>10</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>10</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>10</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>10</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>10</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>10</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>10</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>10</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>10</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>10</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>10</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>10</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>10</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>10</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>10</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>10</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>10</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>10</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>10</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>10</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>10</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>10</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>10</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>10</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>10</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>10</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>10</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>10</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>10</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>10</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>10</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>10</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>10</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>10</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>10</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>10</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>10</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>10</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>10</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>10</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>10</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>10</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>10</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>10</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>10</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>10</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>10</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>10</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>10</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>10</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>10</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>10</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>10</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>10</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>10</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>10</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>10</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>10</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>10</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>10</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>10</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>10</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>10</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>10</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>10</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>10</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>10</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>10</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>10</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>10</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>10</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>10</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>10</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>10</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>10</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>10</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>10</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>10</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>10</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>10</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>10</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>10</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>10</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>10</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>10</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>10</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>10</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>10</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>10</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>10</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>10</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>10</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>10</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>10</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>10</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>10</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>10</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>10</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>10</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>10</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>10</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>10</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>10</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>10</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>10</v>
       </c>
@@ -8421,6 +8421,28 @@
       </c>
       <c r="C726">
         <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>2024</v>
+      </c>
+      <c r="B727" t="s">
+        <v>4</v>
+      </c>
+      <c r="C727">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>2024</v>
+      </c>
+      <c r="B728" t="s">
+        <v>4</v>
+      </c>
+      <c r="C728">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\archive\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6001D-C7DE-42AC-93D8-B46C4080CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43224522-C036-5846-8832-AD8B43D02F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="1160" yWindow="2940" windowWidth="17060" windowHeight="12320" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -426,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C728"/>
+  <dimension ref="A1:C761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="C729" sqref="C729"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="A741" sqref="A741:A761"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -558,7 +558,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -613,7 +613,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -778,7 +778,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -822,7 +822,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -921,7 +921,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -932,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -954,7 +954,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2023</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2023</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2023</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2023</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2023</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2023</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2023</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2023</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2023</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2023</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2023</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2023</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2023</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2023</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2023</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2023</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2023</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2023</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2023</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2023</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2023</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2023</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2023</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2023</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2023</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2023</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2023</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2023</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2023</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2023</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2023</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2023</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2023</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2023</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2023</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2023</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2023</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2023</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2023</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2023</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2023</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2023</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2023</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2023</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2023</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2023</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2023</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2023</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2023</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2023</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2023</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2023</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2023</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2023</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2023</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2023</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2023</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2023</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2023</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2023</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2023</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2023</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2023</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2023</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2023</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2023</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2023</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2023</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2023</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2023</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2023</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2023</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2023</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2023</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2023</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2023</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2023</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2023</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2023</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2023</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2023</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2023</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2023</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2023</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2023</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2023</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2023</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2023</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2023</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2023</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2023</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2023</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2023</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2023</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2023</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2023</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2023</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2023</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2023</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2023</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2023</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2023</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2023</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2023</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2023</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2023</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2023</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2023</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2023</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2023</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2023</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>10</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>10</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>10</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>10</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>10</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>10</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>10</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>10</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>10</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>10</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>10</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>10</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>10</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>10</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>10</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>10</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>10</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>10</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>10</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>10</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>10</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>10</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>10</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>10</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>10</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>10</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>10</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>10</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>10</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>10</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>10</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>10</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>10</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>10</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>10</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>10</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>10</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>10</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>10</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>10</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>10</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>10</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>10</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>10</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>10</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>10</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>10</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>10</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>10</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>10</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>10</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>10</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>10</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>10</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>10</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>10</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>10</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>10</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>10</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>10</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>10</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>10</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>10</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>10</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>10</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>10</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>10</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>10</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>10</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>10</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>10</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>10</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>10</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>10</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>10</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>10</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>10</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>10</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>10</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>10</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>10</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>10</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>10</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>10</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>10</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>10</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>10</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>10</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>10</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>10</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>10</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>10</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>10</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>10</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>10</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>10</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>10</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>10</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>10</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>10</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>10</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>10</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>10</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>10</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>10</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>10</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>10</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>10</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2024</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2024</v>
       </c>
@@ -8443,6 +8443,369 @@
       </c>
       <c r="C728">
         <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>2024</v>
+      </c>
+      <c r="B729" t="s">
+        <v>7</v>
+      </c>
+      <c r="C729">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>2024</v>
+      </c>
+      <c r="B730" t="s">
+        <v>7</v>
+      </c>
+      <c r="C730">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>2024</v>
+      </c>
+      <c r="B731" t="s">
+        <v>7</v>
+      </c>
+      <c r="C731">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>2024</v>
+      </c>
+      <c r="B732" t="s">
+        <v>7</v>
+      </c>
+      <c r="C732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>2024</v>
+      </c>
+      <c r="B733" t="s">
+        <v>7</v>
+      </c>
+      <c r="C733">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>2024</v>
+      </c>
+      <c r="B734" t="s">
+        <v>7</v>
+      </c>
+      <c r="C734">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>2024</v>
+      </c>
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>2024</v>
+      </c>
+      <c r="B736" t="s">
+        <v>7</v>
+      </c>
+      <c r="C736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>2024</v>
+      </c>
+      <c r="B737" t="s">
+        <v>7</v>
+      </c>
+      <c r="C737">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>2024</v>
+      </c>
+      <c r="B738" t="s">
+        <v>8</v>
+      </c>
+      <c r="C738">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>2024</v>
+      </c>
+      <c r="B739" t="s">
+        <v>8</v>
+      </c>
+      <c r="C739">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>2024</v>
+      </c>
+      <c r="B740" t="s">
+        <v>8</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>2024</v>
+      </c>
+      <c r="B741" t="s">
+        <v>8</v>
+      </c>
+      <c r="C741">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>2024</v>
+      </c>
+      <c r="B742" t="s">
+        <v>8</v>
+      </c>
+      <c r="C742">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>2024</v>
+      </c>
+      <c r="B743" t="s">
+        <v>9</v>
+      </c>
+      <c r="C743">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>2024</v>
+      </c>
+      <c r="B744" t="s">
+        <v>9</v>
+      </c>
+      <c r="C744">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>2024</v>
+      </c>
+      <c r="B745" t="s">
+        <v>9</v>
+      </c>
+      <c r="C745">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>2024</v>
+      </c>
+      <c r="B746" t="s">
+        <v>9</v>
+      </c>
+      <c r="C746">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>2024</v>
+      </c>
+      <c r="B747" t="s">
+        <v>9</v>
+      </c>
+      <c r="C747">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>2024</v>
+      </c>
+      <c r="B748" t="s">
+        <v>9</v>
+      </c>
+      <c r="C748">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>2024</v>
+      </c>
+      <c r="B749" t="s">
+        <v>9</v>
+      </c>
+      <c r="C749">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>2024</v>
+      </c>
+      <c r="B750" t="s">
+        <v>9</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>2024</v>
+      </c>
+      <c r="B751" t="s">
+        <v>9</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>2024</v>
+      </c>
+      <c r="B752" t="s">
+        <v>9</v>
+      </c>
+      <c r="C752">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>2024</v>
+      </c>
+      <c r="B753" t="s">
+        <v>9</v>
+      </c>
+      <c r="C753">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>2024</v>
+      </c>
+      <c r="B754" t="s">
+        <v>9</v>
+      </c>
+      <c r="C754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>2024</v>
+      </c>
+      <c r="B755" t="s">
+        <v>9</v>
+      </c>
+      <c r="C755">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>2024</v>
+      </c>
+      <c r="B756" t="s">
+        <v>9</v>
+      </c>
+      <c r="C756">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>2024</v>
+      </c>
+      <c r="B757" t="s">
+        <v>9</v>
+      </c>
+      <c r="C757">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>2024</v>
+      </c>
+      <c r="B758" t="s">
+        <v>9</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>2024</v>
+      </c>
+      <c r="B759" t="s">
+        <v>9</v>
+      </c>
+      <c r="C759">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>2024</v>
+      </c>
+      <c r="B760" t="s">
+        <v>9</v>
+      </c>
+      <c r="C760">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>2024</v>
+      </c>
+      <c r="B761" t="s">
+        <v>9</v>
+      </c>
+      <c r="C761">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43224522-C036-5846-8832-AD8B43D02F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA39A51-9EA6-584A-BA4E-E13C373E1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2940" windowWidth="17060" windowHeight="12320" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="40160" yWindow="4280" windowWidth="22160" windowHeight="13720" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C761"/>
+  <dimension ref="A1:C815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="A741" sqref="A741:A761"/>
+    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="B823" sqref="B823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8808,6 +8808,600 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>2024</v>
+      </c>
+      <c r="B762" t="s">
+        <v>3</v>
+      </c>
+      <c r="C762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>2024</v>
+      </c>
+      <c r="B763" t="s">
+        <v>3</v>
+      </c>
+      <c r="C763">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>2024</v>
+      </c>
+      <c r="B764" t="s">
+        <v>3</v>
+      </c>
+      <c r="C764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>2024</v>
+      </c>
+      <c r="B765" t="s">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>2024</v>
+      </c>
+      <c r="B766" t="s">
+        <v>3</v>
+      </c>
+      <c r="C766">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>2024</v>
+      </c>
+      <c r="B767" t="s">
+        <v>3</v>
+      </c>
+      <c r="C767">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>2024</v>
+      </c>
+      <c r="B768" t="s">
+        <v>3</v>
+      </c>
+      <c r="C768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>2024</v>
+      </c>
+      <c r="B769" t="s">
+        <v>3</v>
+      </c>
+      <c r="C769">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>2024</v>
+      </c>
+      <c r="B770" t="s">
+        <v>3</v>
+      </c>
+      <c r="C770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>2024</v>
+      </c>
+      <c r="B771" t="s">
+        <v>3</v>
+      </c>
+      <c r="C771">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>2024</v>
+      </c>
+      <c r="B772" t="s">
+        <v>3</v>
+      </c>
+      <c r="C772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>2024</v>
+      </c>
+      <c r="B773" t="s">
+        <v>3</v>
+      </c>
+      <c r="C773">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>2024</v>
+      </c>
+      <c r="B774" t="s">
+        <v>3</v>
+      </c>
+      <c r="C774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>2024</v>
+      </c>
+      <c r="B775" t="s">
+        <v>3</v>
+      </c>
+      <c r="C775">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>2024</v>
+      </c>
+      <c r="B776" t="s">
+        <v>3</v>
+      </c>
+      <c r="C776">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>2024</v>
+      </c>
+      <c r="B777" t="s">
+        <v>3</v>
+      </c>
+      <c r="C777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>2024</v>
+      </c>
+      <c r="B778" t="s">
+        <v>3</v>
+      </c>
+      <c r="C778">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>2024</v>
+      </c>
+      <c r="B779" t="s">
+        <v>3</v>
+      </c>
+      <c r="C779">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>2024</v>
+      </c>
+      <c r="B780" t="s">
+        <v>3</v>
+      </c>
+      <c r="C780">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>2024</v>
+      </c>
+      <c r="B781" t="s">
+        <v>3</v>
+      </c>
+      <c r="C781">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>2024</v>
+      </c>
+      <c r="B782" t="s">
+        <v>3</v>
+      </c>
+      <c r="C782">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>2024</v>
+      </c>
+      <c r="B783" t="s">
+        <v>3</v>
+      </c>
+      <c r="C783">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>2024</v>
+      </c>
+      <c r="B784" t="s">
+        <v>3</v>
+      </c>
+      <c r="C784">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>2024</v>
+      </c>
+      <c r="B785" t="s">
+        <v>3</v>
+      </c>
+      <c r="C785">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>2024</v>
+      </c>
+      <c r="B786" t="s">
+        <v>3</v>
+      </c>
+      <c r="C786">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>2024</v>
+      </c>
+      <c r="B787" t="s">
+        <v>3</v>
+      </c>
+      <c r="C787">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>2024</v>
+      </c>
+      <c r="B788" t="s">
+        <v>3</v>
+      </c>
+      <c r="C788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>2024</v>
+      </c>
+      <c r="B789" t="s">
+        <v>3</v>
+      </c>
+      <c r="C789">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>2024</v>
+      </c>
+      <c r="B790" t="s">
+        <v>3</v>
+      </c>
+      <c r="C790">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>2024</v>
+      </c>
+      <c r="B791" t="s">
+        <v>3</v>
+      </c>
+      <c r="C791">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>2024</v>
+      </c>
+      <c r="B792" t="s">
+        <v>3</v>
+      </c>
+      <c r="C792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>2024</v>
+      </c>
+      <c r="B793" t="s">
+        <v>3</v>
+      </c>
+      <c r="C793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>2024</v>
+      </c>
+      <c r="B794" t="s">
+        <v>3</v>
+      </c>
+      <c r="C794">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>2024</v>
+      </c>
+      <c r="B795" t="s">
+        <v>3</v>
+      </c>
+      <c r="C795">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>2024</v>
+      </c>
+      <c r="B796" t="s">
+        <v>3</v>
+      </c>
+      <c r="C796">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>2024</v>
+      </c>
+      <c r="B797" t="s">
+        <v>3</v>
+      </c>
+      <c r="C797">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>2024</v>
+      </c>
+      <c r="B798" t="s">
+        <v>3</v>
+      </c>
+      <c r="C798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>2024</v>
+      </c>
+      <c r="B799" t="s">
+        <v>3</v>
+      </c>
+      <c r="C799">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>2024</v>
+      </c>
+      <c r="B800" t="s">
+        <v>3</v>
+      </c>
+      <c r="C800">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>2024</v>
+      </c>
+      <c r="B801" t="s">
+        <v>3</v>
+      </c>
+      <c r="C801">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>2024</v>
+      </c>
+      <c r="B802" t="s">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>2024</v>
+      </c>
+      <c r="B803" t="s">
+        <v>3</v>
+      </c>
+      <c r="C803">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>2024</v>
+      </c>
+      <c r="B804" t="s">
+        <v>3</v>
+      </c>
+      <c r="C804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>2024</v>
+      </c>
+      <c r="B805" t="s">
+        <v>3</v>
+      </c>
+      <c r="C805">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>2024</v>
+      </c>
+      <c r="B806" t="s">
+        <v>3</v>
+      </c>
+      <c r="C806">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>2024</v>
+      </c>
+      <c r="B807" t="s">
+        <v>3</v>
+      </c>
+      <c r="C807">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>2024</v>
+      </c>
+      <c r="B808" t="s">
+        <v>3</v>
+      </c>
+      <c r="C808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>2024</v>
+      </c>
+      <c r="B809" t="s">
+        <v>3</v>
+      </c>
+      <c r="C809">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>2024</v>
+      </c>
+      <c r="B810" t="s">
+        <v>3</v>
+      </c>
+      <c r="C810">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>2024</v>
+      </c>
+      <c r="B811" t="s">
+        <v>3</v>
+      </c>
+      <c r="C811">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>2024</v>
+      </c>
+      <c r="B812" t="s">
+        <v>3</v>
+      </c>
+      <c r="C812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>2024</v>
+      </c>
+      <c r="B813" t="s">
+        <v>3</v>
+      </c>
+      <c r="C813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>2024</v>
+      </c>
+      <c r="B814" t="s">
+        <v>3</v>
+      </c>
+      <c r="C814">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>2024</v>
+      </c>
+      <c r="B815" t="s">
+        <v>3</v>
+      </c>
+      <c r="C815">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA39A51-9EA6-584A-BA4E-E13C373E1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD940F-5494-6F44-B5EF-7FBDCC44AF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="4280" windowWidth="22160" windowHeight="13720" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="2500" yWindow="3800" windowWidth="22160" windowHeight="13720" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C815"/>
+  <dimension ref="A1:C820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="B823" sqref="B823"/>
+    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
+      <selection activeCell="F817" sqref="F817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9402,6 +9402,61 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>2025</v>
+      </c>
+      <c r="B816" t="s">
+        <v>3</v>
+      </c>
+      <c r="C816">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>2025</v>
+      </c>
+      <c r="B817" t="s">
+        <v>3</v>
+      </c>
+      <c r="C817">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>2025</v>
+      </c>
+      <c r="B818" t="s">
+        <v>3</v>
+      </c>
+      <c r="C818">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>2025</v>
+      </c>
+      <c r="B819" t="s">
+        <v>3</v>
+      </c>
+      <c r="C819">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2025</v>
+      </c>
+      <c r="B820" t="s">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD940F-5494-6F44-B5EF-7FBDCC44AF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F34943-A165-494F-A0B0-C7101A41A502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="3800" windowWidth="22160" windowHeight="13720" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +88,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C820"/>
+  <dimension ref="A1:C856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="F817" sqref="F817"/>
+    <sheetView tabSelected="1" topLeftCell="A832" workbookViewId="0">
+      <selection activeCell="B821" sqref="B821:B856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9457,6 +9463,402 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2025</v>
+      </c>
+      <c r="B821" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>2025</v>
+      </c>
+      <c r="B822" t="s">
+        <v>4</v>
+      </c>
+      <c r="C822" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>2025</v>
+      </c>
+      <c r="B823" t="s">
+        <v>4</v>
+      </c>
+      <c r="C823" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>2025</v>
+      </c>
+      <c r="B824" t="s">
+        <v>4</v>
+      </c>
+      <c r="C824" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>2025</v>
+      </c>
+      <c r="B825" t="s">
+        <v>4</v>
+      </c>
+      <c r="C825" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>2025</v>
+      </c>
+      <c r="B826" t="s">
+        <v>4</v>
+      </c>
+      <c r="C826" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>2025</v>
+      </c>
+      <c r="B827" t="s">
+        <v>4</v>
+      </c>
+      <c r="C827" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>2025</v>
+      </c>
+      <c r="B828" t="s">
+        <v>4</v>
+      </c>
+      <c r="C828" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>2025</v>
+      </c>
+      <c r="B829" t="s">
+        <v>4</v>
+      </c>
+      <c r="C829" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>2025</v>
+      </c>
+      <c r="B830" t="s">
+        <v>4</v>
+      </c>
+      <c r="C830" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>2025</v>
+      </c>
+      <c r="B831" t="s">
+        <v>4</v>
+      </c>
+      <c r="C831" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>2025</v>
+      </c>
+      <c r="B832" t="s">
+        <v>4</v>
+      </c>
+      <c r="C832" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>2025</v>
+      </c>
+      <c r="B833" t="s">
+        <v>4</v>
+      </c>
+      <c r="C833" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>2025</v>
+      </c>
+      <c r="B834" t="s">
+        <v>4</v>
+      </c>
+      <c r="C834" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>2025</v>
+      </c>
+      <c r="B835" t="s">
+        <v>4</v>
+      </c>
+      <c r="C835" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>2025</v>
+      </c>
+      <c r="B836" t="s">
+        <v>4</v>
+      </c>
+      <c r="C836" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>2025</v>
+      </c>
+      <c r="B837" t="s">
+        <v>4</v>
+      </c>
+      <c r="C837" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>2025</v>
+      </c>
+      <c r="B838" t="s">
+        <v>4</v>
+      </c>
+      <c r="C838" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>2025</v>
+      </c>
+      <c r="B839" t="s">
+        <v>4</v>
+      </c>
+      <c r="C839" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>2025</v>
+      </c>
+      <c r="B840" t="s">
+        <v>4</v>
+      </c>
+      <c r="C840" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>2025</v>
+      </c>
+      <c r="B841" t="s">
+        <v>4</v>
+      </c>
+      <c r="C841" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>2025</v>
+      </c>
+      <c r="B842" t="s">
+        <v>4</v>
+      </c>
+      <c r="C842" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>2025</v>
+      </c>
+      <c r="B843" t="s">
+        <v>4</v>
+      </c>
+      <c r="C843" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>2025</v>
+      </c>
+      <c r="B844" t="s">
+        <v>4</v>
+      </c>
+      <c r="C844" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>2025</v>
+      </c>
+      <c r="B845" t="s">
+        <v>4</v>
+      </c>
+      <c r="C845" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>2025</v>
+      </c>
+      <c r="B846" t="s">
+        <v>4</v>
+      </c>
+      <c r="C846" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>2025</v>
+      </c>
+      <c r="B847" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>2025</v>
+      </c>
+      <c r="B848" t="s">
+        <v>4</v>
+      </c>
+      <c r="C848" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>2025</v>
+      </c>
+      <c r="B849" t="s">
+        <v>4</v>
+      </c>
+      <c r="C849" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>2025</v>
+      </c>
+      <c r="B850" t="s">
+        <v>4</v>
+      </c>
+      <c r="C850" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>2025</v>
+      </c>
+      <c r="B851" t="s">
+        <v>4</v>
+      </c>
+      <c r="C851" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>2025</v>
+      </c>
+      <c r="B852" t="s">
+        <v>4</v>
+      </c>
+      <c r="C852" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>2025</v>
+      </c>
+      <c r="B853" t="s">
+        <v>4</v>
+      </c>
+      <c r="C853" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>2025</v>
+      </c>
+      <c r="B854" t="s">
+        <v>4</v>
+      </c>
+      <c r="C854" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>2025</v>
+      </c>
+      <c r="B855" t="s">
+        <v>4</v>
+      </c>
+      <c r="C855" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>2025</v>
+      </c>
+      <c r="B856" t="s">
+        <v>4</v>
+      </c>
+      <c r="C856" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\archive\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F34943-A165-494F-A0B0-C7101A41A502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC19271-E35C-45B7-AF61-77540A557D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3800" windowWidth="22160" windowHeight="13720" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12264" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>2023/24</t>
+  </si>
+  <si>
+    <t>2024/25</t>
   </si>
 </sst>
 </file>
@@ -434,16 +437,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
   <dimension ref="A1:C856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A832" workbookViewId="0">
-      <selection activeCell="B821" sqref="B821:B856"/>
+    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
+      <selection activeCell="B854" sqref="B854"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -465,7 +468,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -476,7 +479,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -487,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -498,7 +501,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -509,7 +512,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -520,7 +523,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -531,7 +534,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -542,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -553,7 +556,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -564,7 +567,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -575,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -586,7 +589,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -597,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -608,7 +611,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -619,7 +622,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -630,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -641,7 +644,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -652,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -663,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -674,7 +677,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -685,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -696,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -707,7 +710,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -718,7 +721,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -729,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -740,7 +743,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -751,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -762,7 +765,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -773,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -784,7 +787,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -795,7 +798,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -806,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -817,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -828,7 +831,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -839,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -850,7 +853,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -861,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -872,7 +875,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -883,7 +886,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -894,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -905,7 +908,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -916,7 +919,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -927,7 +930,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -938,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -949,7 +952,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -960,7 +963,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -971,7 +974,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -982,7 +985,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -993,7 +996,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2023</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2023</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2023</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2023</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2023</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2023</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2023</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2023</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2023</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2023</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2023</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2023</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2023</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2023</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2023</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2023</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2023</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2023</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2023</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2023</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2023</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2023</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2023</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2023</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2023</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2023</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2023</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2023</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2023</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2023</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2023</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2023</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2023</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2023</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2023</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2023</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2023</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2023</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2023</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2023</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2023</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2023</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2023</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2023</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2023</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2023</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2023</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2023</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2023</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2023</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2023</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2023</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2023</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2023</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2023</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2023</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2023</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2023</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2023</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2023</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2023</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2023</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2023</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2023</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2023</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2023</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2023</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2023</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2023</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2023</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2023</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2023</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2023</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2023</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2023</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2023</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2023</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2023</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2023</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2023</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2023</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2023</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2023</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2023</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2023</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2023</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2023</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2023</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2023</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2023</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2023</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2023</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2023</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2023</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2023</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2023</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2023</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2023</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2023</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2023</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2023</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2023</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2023</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2023</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2023</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2023</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2023</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2023</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2023</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2023</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2023</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>10</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>10</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>10</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>10</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>10</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>10</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>10</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>10</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>10</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>10</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>10</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>10</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>10</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>10</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>10</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>10</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>10</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>10</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>10</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -6471,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>10</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>10</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>10</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>10</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>10</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>10</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>10</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>10</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>10</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>10</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -6702,7 +6705,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>10</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>10</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -6933,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>10</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>10</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>10</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>10</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>10</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>10</v>
       </c>
@@ -7197,7 +7200,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>10</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>10</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>10</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>10</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>10</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>10</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>10</v>
       </c>
@@ -7318,7 +7321,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>10</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>10</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>10</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>10</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>10</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>10</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>10</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>10</v>
       </c>
@@ -7428,7 +7431,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>10</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>10</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>10</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>10</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>10</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>10</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>10</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>10</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>10</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>10</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>10</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>10</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>10</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -7670,7 +7673,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>10</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>10</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>10</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>10</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>10</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>10</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>10</v>
       </c>
@@ -7769,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>10</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>10</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>10</v>
       </c>
@@ -7824,7 +7827,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>10</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>10</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>10</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -7901,7 +7904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>10</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>10</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>10</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>10</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>10</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>10</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>10</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>10</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>10</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>10</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>10</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>10</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>10</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>10</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>10</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>10</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>10</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>10</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>10</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>10</v>
       </c>
@@ -8198,7 +8201,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>10</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>10</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>10</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>10</v>
       </c>
@@ -8242,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>10</v>
       </c>
@@ -8253,7 +8256,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>10</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>10</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>10</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>10</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>10</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -8319,7 +8322,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>10</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>10</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>10</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>10</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>10</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>10</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>10</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>10</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>10</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2024</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>2024</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>2024</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2024</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>2024</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>2024</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>2024</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>2024</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>2024</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2024</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>2024</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>2024</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2024</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>2024</v>
       </c>
@@ -8583,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>2024</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>2024</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>2024</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>2024</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>2024</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2024</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>2024</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>2024</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>2024</v>
       </c>
@@ -8682,7 +8685,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>2024</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>2024</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>2024</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>2024</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>2024</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>2024</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>2024</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>2024</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>2024</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>2024</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>2024</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>2024</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>2024</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>2024</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>2024</v>
       </c>
@@ -8847,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>2024</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>2024</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>2024</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>2024</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>2024</v>
       </c>
@@ -8902,7 +8905,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2024</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>2024</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>2024</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>2024</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -9078,7 +9081,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -9089,7 +9092,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -9221,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -9353,7 +9356,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -9386,7 +9389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -9408,9 +9411,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A816">
-        <v>2025</v>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>11</v>
       </c>
       <c r="B816" t="s">
         <v>3</v>
@@ -9419,9 +9422,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A817">
-        <v>2025</v>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>11</v>
       </c>
       <c r="B817" t="s">
         <v>3</v>
@@ -9430,9 +9433,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A818">
-        <v>2025</v>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>11</v>
       </c>
       <c r="B818" t="s">
         <v>3</v>
@@ -9441,9 +9444,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A819">
-        <v>2025</v>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>11</v>
       </c>
       <c r="B819" t="s">
         <v>3</v>
@@ -9452,9 +9455,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A820">
-        <v>2025</v>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>11</v>
       </c>
       <c r="B820" t="s">
         <v>3</v>
@@ -9463,9 +9466,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A821">
-        <v>2025</v>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>11</v>
       </c>
       <c r="B821" t="s">
         <v>4</v>
@@ -9474,9 +9477,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A822">
-        <v>2025</v>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>11</v>
       </c>
       <c r="B822" t="s">
         <v>4</v>
@@ -9485,9 +9488,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A823">
-        <v>2025</v>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>11</v>
       </c>
       <c r="B823" t="s">
         <v>4</v>
@@ -9496,9 +9499,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A824">
-        <v>2025</v>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>11</v>
       </c>
       <c r="B824" t="s">
         <v>4</v>
@@ -9507,9 +9510,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A825">
-        <v>2025</v>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>11</v>
       </c>
       <c r="B825" t="s">
         <v>4</v>
@@ -9518,9 +9521,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A826">
-        <v>2025</v>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>11</v>
       </c>
       <c r="B826" t="s">
         <v>4</v>
@@ -9529,9 +9532,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A827">
-        <v>2025</v>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>11</v>
       </c>
       <c r="B827" t="s">
         <v>4</v>
@@ -9540,9 +9543,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A828">
-        <v>2025</v>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>11</v>
       </c>
       <c r="B828" t="s">
         <v>4</v>
@@ -9551,9 +9554,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A829">
-        <v>2025</v>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>11</v>
       </c>
       <c r="B829" t="s">
         <v>4</v>
@@ -9562,9 +9565,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A830">
-        <v>2025</v>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>11</v>
       </c>
       <c r="B830" t="s">
         <v>4</v>
@@ -9573,9 +9576,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A831">
-        <v>2025</v>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>11</v>
       </c>
       <c r="B831" t="s">
         <v>4</v>
@@ -9584,9 +9587,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A832">
-        <v>2025</v>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>11</v>
       </c>
       <c r="B832" t="s">
         <v>4</v>
@@ -9595,9 +9598,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A833">
-        <v>2025</v>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>11</v>
       </c>
       <c r="B833" t="s">
         <v>4</v>
@@ -9606,9 +9609,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A834">
-        <v>2025</v>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>11</v>
       </c>
       <c r="B834" t="s">
         <v>4</v>
@@ -9617,9 +9620,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A835">
-        <v>2025</v>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>11</v>
       </c>
       <c r="B835" t="s">
         <v>4</v>
@@ -9628,9 +9631,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A836">
-        <v>2025</v>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>11</v>
       </c>
       <c r="B836" t="s">
         <v>4</v>
@@ -9639,9 +9642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A837">
-        <v>2025</v>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>11</v>
       </c>
       <c r="B837" t="s">
         <v>4</v>
@@ -9650,9 +9653,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A838">
-        <v>2025</v>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>11</v>
       </c>
       <c r="B838" t="s">
         <v>4</v>
@@ -9661,9 +9664,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A839">
-        <v>2025</v>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>11</v>
       </c>
       <c r="B839" t="s">
         <v>4</v>
@@ -9672,9 +9675,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A840">
-        <v>2025</v>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>11</v>
       </c>
       <c r="B840" t="s">
         <v>4</v>
@@ -9683,9 +9686,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A841">
-        <v>2025</v>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>11</v>
       </c>
       <c r="B841" t="s">
         <v>4</v>
@@ -9694,9 +9697,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A842">
-        <v>2025</v>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>11</v>
       </c>
       <c r="B842" t="s">
         <v>4</v>
@@ -9705,9 +9708,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A843">
-        <v>2025</v>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>11</v>
       </c>
       <c r="B843" t="s">
         <v>4</v>
@@ -9716,9 +9719,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A844">
-        <v>2025</v>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>11</v>
       </c>
       <c r="B844" t="s">
         <v>4</v>
@@ -9727,9 +9730,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A845">
-        <v>2025</v>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>11</v>
       </c>
       <c r="B845" t="s">
         <v>4</v>
@@ -9738,9 +9741,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A846">
-        <v>2025</v>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>11</v>
       </c>
       <c r="B846" t="s">
         <v>4</v>
@@ -9749,9 +9752,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A847">
-        <v>2025</v>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>11</v>
       </c>
       <c r="B847" t="s">
         <v>4</v>
@@ -9760,9 +9763,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A848">
-        <v>2025</v>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>11</v>
       </c>
       <c r="B848" t="s">
         <v>4</v>
@@ -9771,9 +9774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A849">
-        <v>2025</v>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>11</v>
       </c>
       <c r="B849" t="s">
         <v>4</v>
@@ -9782,9 +9785,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A850">
-        <v>2025</v>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>11</v>
       </c>
       <c r="B850" t="s">
         <v>4</v>
@@ -9793,9 +9796,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A851">
-        <v>2025</v>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>11</v>
       </c>
       <c r="B851" t="s">
         <v>4</v>
@@ -9804,9 +9807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A852">
-        <v>2025</v>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>11</v>
       </c>
       <c r="B852" t="s">
         <v>4</v>
@@ -9815,9 +9818,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A853">
-        <v>2025</v>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>11</v>
       </c>
       <c r="B853" t="s">
         <v>4</v>
@@ -9826,9 +9829,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A854">
-        <v>2025</v>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>11</v>
       </c>
       <c r="B854" t="s">
         <v>4</v>
@@ -9837,9 +9840,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A855">
-        <v>2025</v>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>11</v>
       </c>
       <c r="B855" t="s">
         <v>4</v>
@@ -9848,9 +9851,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A856">
-        <v>2025</v>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>11</v>
       </c>
       <c r="B856" t="s">
         <v>4</v>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\archive\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC19271-E35C-45B7-AF61-77540A557D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E207DE38-85DD-A74C-AD6A-2DBCA32D3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12264" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="1540" yWindow="1540" windowWidth="28520" windowHeight="14020" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -435,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C856"/>
+  <dimension ref="A1:C1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
-      <selection activeCell="B854" sqref="B854"/>
+    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
+      <selection activeCell="B857" sqref="B857:B1043"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -523,7 +523,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -622,7 +622,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -721,7 +721,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -743,7 +743,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -765,7 +765,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -787,7 +787,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -831,7 +831,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -853,7 +853,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -886,7 +886,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -996,7 +996,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2023</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2023</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2023</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2023</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2023</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2023</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2023</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2023</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2023</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2023</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2023</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2023</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2023</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2023</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2023</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2023</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2023</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2023</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2023</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2023</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2023</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2023</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2023</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2023</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2023</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2023</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2023</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2023</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2023</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2023</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2023</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2023</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2023</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2023</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2023</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2023</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2023</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2023</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2023</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2023</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2023</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2023</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2023</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2023</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2023</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2023</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2023</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2023</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2023</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2023</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2023</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2023</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2023</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2023</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2023</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2023</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2023</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2023</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2023</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2023</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2023</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2023</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2023</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2023</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2023</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2023</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2023</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2023</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2023</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2023</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2023</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2023</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2023</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2023</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2023</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2023</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2023</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2023</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2023</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2023</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2023</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2023</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2023</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2023</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2023</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2023</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2023</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2023</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2023</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2023</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2023</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2023</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2023</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2023</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2023</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2023</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2023</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2023</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2023</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2023</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2023</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2023</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2023</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2023</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2023</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2023</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2023</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2023</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2023</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2023</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2023</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>10</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>10</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>10</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>10</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>10</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>10</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>10</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>10</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>10</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>10</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>10</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>10</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>10</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>10</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>10</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>10</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>10</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>10</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>10</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>10</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>10</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>10</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>10</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>10</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>10</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>10</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>10</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>10</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>10</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>10</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>10</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>10</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>10</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>10</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>10</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>10</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>10</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>10</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>10</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>10</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>10</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>10</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>10</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>10</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>10</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>10</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>10</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>10</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>10</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>10</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>10</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>10</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>10</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>10</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>10</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>10</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>10</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>10</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>10</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>10</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>10</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>10</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>10</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>10</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>10</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>10</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>10</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>10</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>10</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>10</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>10</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>10</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>10</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>10</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>10</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>10</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>10</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>10</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>10</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>10</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>10</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>10</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>10</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>10</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>10</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>10</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>10</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>10</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>10</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>10</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>10</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>10</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>10</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>10</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>10</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>10</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>10</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>10</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>10</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>10</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>10</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>10</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>10</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>10</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>10</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>10</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>10</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>10</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>10</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>10</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>10</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>10</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>10</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>10</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>10</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>10</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>10</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>10</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>10</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>10</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>10</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>10</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>10</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2024</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2024</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2024</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>2024</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2024</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>2024</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2024</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>2024</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>2024</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>2024</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2024</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2024</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2024</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2024</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2024</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2024</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2024</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>2024</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2024</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>2024</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>2024</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2024</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2024</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2024</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>2024</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>2024</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2024</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2024</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>2024</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>2024</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2024</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>2024</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2024</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>2024</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2024</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2024</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2024</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>2024</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>2024</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>2024</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>2024</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>2024</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>2024</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>2024</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>2024</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>2024</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>2024</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>11</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>11</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>11</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>11</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>11</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>11</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>11</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>11</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>11</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>11</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>11</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>11</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>11</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>11</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>11</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>11</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>11</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>11</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>11</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>11</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>11</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>11</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>11</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>11</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>11</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>11</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>11</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>11</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>11</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>11</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>11</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>11</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>11</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>11</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>11</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>11</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>11</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>11</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>11</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>11</v>
       </c>
@@ -9860,6 +9860,2063 @@
       </c>
       <c r="C856" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>11</v>
+      </c>
+      <c r="B857" t="s">
+        <v>7</v>
+      </c>
+      <c r="C857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>11</v>
+      </c>
+      <c r="B858" t="s">
+        <v>7</v>
+      </c>
+      <c r="C858">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>11</v>
+      </c>
+      <c r="B859" t="s">
+        <v>7</v>
+      </c>
+      <c r="C859">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>11</v>
+      </c>
+      <c r="B860" t="s">
+        <v>7</v>
+      </c>
+      <c r="C860">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>11</v>
+      </c>
+      <c r="B861" t="s">
+        <v>7</v>
+      </c>
+      <c r="C861">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>11</v>
+      </c>
+      <c r="B862" t="s">
+        <v>7</v>
+      </c>
+      <c r="C862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>11</v>
+      </c>
+      <c r="B863" t="s">
+        <v>7</v>
+      </c>
+      <c r="C863">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>11</v>
+      </c>
+      <c r="B864" t="s">
+        <v>7</v>
+      </c>
+      <c r="C864">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>11</v>
+      </c>
+      <c r="B865" t="s">
+        <v>7</v>
+      </c>
+      <c r="C865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>11</v>
+      </c>
+      <c r="B866" t="s">
+        <v>7</v>
+      </c>
+      <c r="C866">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>11</v>
+      </c>
+      <c r="B867" t="s">
+        <v>7</v>
+      </c>
+      <c r="C867">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>11</v>
+      </c>
+      <c r="B868" t="s">
+        <v>7</v>
+      </c>
+      <c r="C868">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>11</v>
+      </c>
+      <c r="B869" t="s">
+        <v>7</v>
+      </c>
+      <c r="C869">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>11</v>
+      </c>
+      <c r="B870" t="s">
+        <v>7</v>
+      </c>
+      <c r="C870">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>11</v>
+      </c>
+      <c r="B871" t="s">
+        <v>7</v>
+      </c>
+      <c r="C871">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>11</v>
+      </c>
+      <c r="B872" t="s">
+        <v>7</v>
+      </c>
+      <c r="C872">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>11</v>
+      </c>
+      <c r="B873" t="s">
+        <v>7</v>
+      </c>
+      <c r="C873">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>11</v>
+      </c>
+      <c r="B874" t="s">
+        <v>7</v>
+      </c>
+      <c r="C874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>11</v>
+      </c>
+      <c r="B875" t="s">
+        <v>7</v>
+      </c>
+      <c r="C875">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>11</v>
+      </c>
+      <c r="B876" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>11</v>
+      </c>
+      <c r="B877" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>11</v>
+      </c>
+      <c r="B878" t="s">
+        <v>7</v>
+      </c>
+      <c r="C878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>11</v>
+      </c>
+      <c r="B879" t="s">
+        <v>7</v>
+      </c>
+      <c r="C879">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>11</v>
+      </c>
+      <c r="B880" t="s">
+        <v>7</v>
+      </c>
+      <c r="C880">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>11</v>
+      </c>
+      <c r="B881" t="s">
+        <v>7</v>
+      </c>
+      <c r="C881">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>11</v>
+      </c>
+      <c r="B882" t="s">
+        <v>7</v>
+      </c>
+      <c r="C882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>11</v>
+      </c>
+      <c r="B883" t="s">
+        <v>7</v>
+      </c>
+      <c r="C883">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>11</v>
+      </c>
+      <c r="B884" t="s">
+        <v>7</v>
+      </c>
+      <c r="C884">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>11</v>
+      </c>
+      <c r="B885" t="s">
+        <v>7</v>
+      </c>
+      <c r="C885">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>11</v>
+      </c>
+      <c r="B886" t="s">
+        <v>7</v>
+      </c>
+      <c r="C886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>11</v>
+      </c>
+      <c r="B887" t="s">
+        <v>7</v>
+      </c>
+      <c r="C887">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>11</v>
+      </c>
+      <c r="B888" t="s">
+        <v>7</v>
+      </c>
+      <c r="C888">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>11</v>
+      </c>
+      <c r="B889" t="s">
+        <v>7</v>
+      </c>
+      <c r="C889">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>11</v>
+      </c>
+      <c r="B890" t="s">
+        <v>7</v>
+      </c>
+      <c r="C890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>11</v>
+      </c>
+      <c r="B891" t="s">
+        <v>7</v>
+      </c>
+      <c r="C891">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>11</v>
+      </c>
+      <c r="B892" t="s">
+        <v>7</v>
+      </c>
+      <c r="C892">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>11</v>
+      </c>
+      <c r="B893" t="s">
+        <v>7</v>
+      </c>
+      <c r="C893">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>11</v>
+      </c>
+      <c r="B894" t="s">
+        <v>7</v>
+      </c>
+      <c r="C894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>11</v>
+      </c>
+      <c r="B895" t="s">
+        <v>7</v>
+      </c>
+      <c r="C895">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>11</v>
+      </c>
+      <c r="B896" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>11</v>
+      </c>
+      <c r="B897" t="s">
+        <v>7</v>
+      </c>
+      <c r="C897">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>11</v>
+      </c>
+      <c r="B898" t="s">
+        <v>7</v>
+      </c>
+      <c r="C898">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>11</v>
+      </c>
+      <c r="B899" t="s">
+        <v>7</v>
+      </c>
+      <c r="C899">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>11</v>
+      </c>
+      <c r="B900" t="s">
+        <v>7</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>11</v>
+      </c>
+      <c r="B901" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>11</v>
+      </c>
+      <c r="B902" t="s">
+        <v>7</v>
+      </c>
+      <c r="C902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>11</v>
+      </c>
+      <c r="B903" t="s">
+        <v>7</v>
+      </c>
+      <c r="C903">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>11</v>
+      </c>
+      <c r="B904" t="s">
+        <v>7</v>
+      </c>
+      <c r="C904">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>11</v>
+      </c>
+      <c r="B905" t="s">
+        <v>7</v>
+      </c>
+      <c r="C905">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>11</v>
+      </c>
+      <c r="B906" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>11</v>
+      </c>
+      <c r="B907" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>11</v>
+      </c>
+      <c r="B908" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>11</v>
+      </c>
+      <c r="B909" t="s">
+        <v>7</v>
+      </c>
+      <c r="C909">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>11</v>
+      </c>
+      <c r="B910" t="s">
+        <v>7</v>
+      </c>
+      <c r="C910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>11</v>
+      </c>
+      <c r="B911" t="s">
+        <v>7</v>
+      </c>
+      <c r="C911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>11</v>
+      </c>
+      <c r="B912" t="s">
+        <v>7</v>
+      </c>
+      <c r="C912">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>11</v>
+      </c>
+      <c r="B913" t="s">
+        <v>7</v>
+      </c>
+      <c r="C913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>11</v>
+      </c>
+      <c r="B914" t="s">
+        <v>7</v>
+      </c>
+      <c r="C914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>11</v>
+      </c>
+      <c r="B915" t="s">
+        <v>7</v>
+      </c>
+      <c r="C915">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>11</v>
+      </c>
+      <c r="B916" t="s">
+        <v>7</v>
+      </c>
+      <c r="C916">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>11</v>
+      </c>
+      <c r="B917" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>11</v>
+      </c>
+      <c r="B918" t="s">
+        <v>7</v>
+      </c>
+      <c r="C918">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>11</v>
+      </c>
+      <c r="B919" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>11</v>
+      </c>
+      <c r="B920" t="s">
+        <v>7</v>
+      </c>
+      <c r="C920">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>11</v>
+      </c>
+      <c r="B921" t="s">
+        <v>7</v>
+      </c>
+      <c r="C921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>11</v>
+      </c>
+      <c r="B922" t="s">
+        <v>7</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>11</v>
+      </c>
+      <c r="B923" t="s">
+        <v>7</v>
+      </c>
+      <c r="C923">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>11</v>
+      </c>
+      <c r="B924" t="s">
+        <v>7</v>
+      </c>
+      <c r="C924">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>11</v>
+      </c>
+      <c r="B925" t="s">
+        <v>7</v>
+      </c>
+      <c r="C925">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>11</v>
+      </c>
+      <c r="B926" t="s">
+        <v>7</v>
+      </c>
+      <c r="C926">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>11</v>
+      </c>
+      <c r="B927" t="s">
+        <v>7</v>
+      </c>
+      <c r="C927">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>11</v>
+      </c>
+      <c r="B928" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>11</v>
+      </c>
+      <c r="B929" t="s">
+        <v>7</v>
+      </c>
+      <c r="C929">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>11</v>
+      </c>
+      <c r="B930" t="s">
+        <v>7</v>
+      </c>
+      <c r="C930">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>11</v>
+      </c>
+      <c r="B931" t="s">
+        <v>7</v>
+      </c>
+      <c r="C931">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>11</v>
+      </c>
+      <c r="B932" t="s">
+        <v>7</v>
+      </c>
+      <c r="C932">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>11</v>
+      </c>
+      <c r="B933" t="s">
+        <v>7</v>
+      </c>
+      <c r="C933">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>11</v>
+      </c>
+      <c r="B934" t="s">
+        <v>7</v>
+      </c>
+      <c r="C934">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>11</v>
+      </c>
+      <c r="B935" t="s">
+        <v>7</v>
+      </c>
+      <c r="C935">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>11</v>
+      </c>
+      <c r="B936" t="s">
+        <v>7</v>
+      </c>
+      <c r="C936">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>11</v>
+      </c>
+      <c r="B937" t="s">
+        <v>7</v>
+      </c>
+      <c r="C937">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>11</v>
+      </c>
+      <c r="B938" t="s">
+        <v>7</v>
+      </c>
+      <c r="C938">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>11</v>
+      </c>
+      <c r="B939" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>11</v>
+      </c>
+      <c r="B940" t="s">
+        <v>7</v>
+      </c>
+      <c r="C940">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>11</v>
+      </c>
+      <c r="B941" t="s">
+        <v>7</v>
+      </c>
+      <c r="C941">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>11</v>
+      </c>
+      <c r="B942" t="s">
+        <v>7</v>
+      </c>
+      <c r="C942">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>11</v>
+      </c>
+      <c r="B943" t="s">
+        <v>7</v>
+      </c>
+      <c r="C943">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>11</v>
+      </c>
+      <c r="B944" t="s">
+        <v>7</v>
+      </c>
+      <c r="C944">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>11</v>
+      </c>
+      <c r="B945" t="s">
+        <v>7</v>
+      </c>
+      <c r="C945">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>11</v>
+      </c>
+      <c r="B946" t="s">
+        <v>7</v>
+      </c>
+      <c r="C946">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>11</v>
+      </c>
+      <c r="B947" t="s">
+        <v>7</v>
+      </c>
+      <c r="C947">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>11</v>
+      </c>
+      <c r="B948" t="s">
+        <v>7</v>
+      </c>
+      <c r="C948">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>11</v>
+      </c>
+      <c r="B949" t="s">
+        <v>7</v>
+      </c>
+      <c r="C949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>11</v>
+      </c>
+      <c r="B950" t="s">
+        <v>7</v>
+      </c>
+      <c r="C950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>11</v>
+      </c>
+      <c r="B951" t="s">
+        <v>7</v>
+      </c>
+      <c r="C951">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>11</v>
+      </c>
+      <c r="B952" t="s">
+        <v>7</v>
+      </c>
+      <c r="C952">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>11</v>
+      </c>
+      <c r="B953" t="s">
+        <v>7</v>
+      </c>
+      <c r="C953">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>11</v>
+      </c>
+      <c r="B954" t="s">
+        <v>7</v>
+      </c>
+      <c r="C954">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>11</v>
+      </c>
+      <c r="B955" t="s">
+        <v>7</v>
+      </c>
+      <c r="C955">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>11</v>
+      </c>
+      <c r="B956" t="s">
+        <v>7</v>
+      </c>
+      <c r="C956">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>11</v>
+      </c>
+      <c r="B957" t="s">
+        <v>7</v>
+      </c>
+      <c r="C957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>11</v>
+      </c>
+      <c r="B958" t="s">
+        <v>7</v>
+      </c>
+      <c r="C958">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>11</v>
+      </c>
+      <c r="B959" t="s">
+        <v>7</v>
+      </c>
+      <c r="C959">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>11</v>
+      </c>
+      <c r="B960" t="s">
+        <v>7</v>
+      </c>
+      <c r="C960">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>11</v>
+      </c>
+      <c r="B961" t="s">
+        <v>7</v>
+      </c>
+      <c r="C961">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>11</v>
+      </c>
+      <c r="B962" t="s">
+        <v>7</v>
+      </c>
+      <c r="C962">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>11</v>
+      </c>
+      <c r="B963" t="s">
+        <v>7</v>
+      </c>
+      <c r="C963">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>11</v>
+      </c>
+      <c r="B964" t="s">
+        <v>7</v>
+      </c>
+      <c r="C964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>11</v>
+      </c>
+      <c r="B965" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>11</v>
+      </c>
+      <c r="B966" t="s">
+        <v>7</v>
+      </c>
+      <c r="C966">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>11</v>
+      </c>
+      <c r="B967" t="s">
+        <v>7</v>
+      </c>
+      <c r="C967">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>11</v>
+      </c>
+      <c r="B968" t="s">
+        <v>7</v>
+      </c>
+      <c r="C968">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>11</v>
+      </c>
+      <c r="B969" t="s">
+        <v>7</v>
+      </c>
+      <c r="C969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>11</v>
+      </c>
+      <c r="B970" t="s">
+        <v>7</v>
+      </c>
+      <c r="C970">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>11</v>
+      </c>
+      <c r="B971" t="s">
+        <v>7</v>
+      </c>
+      <c r="C971">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>11</v>
+      </c>
+      <c r="B972" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>11</v>
+      </c>
+      <c r="B973" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>11</v>
+      </c>
+      <c r="B974" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>11</v>
+      </c>
+      <c r="B975" t="s">
+        <v>7</v>
+      </c>
+      <c r="C975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>11</v>
+      </c>
+      <c r="B976" t="s">
+        <v>7</v>
+      </c>
+      <c r="C976">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>11</v>
+      </c>
+      <c r="B977" t="s">
+        <v>7</v>
+      </c>
+      <c r="C977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>11</v>
+      </c>
+      <c r="B978" t="s">
+        <v>7</v>
+      </c>
+      <c r="C978">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>11</v>
+      </c>
+      <c r="B979" t="s">
+        <v>7</v>
+      </c>
+      <c r="C979">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>11</v>
+      </c>
+      <c r="B980" t="s">
+        <v>7</v>
+      </c>
+      <c r="C980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>11</v>
+      </c>
+      <c r="B981" t="s">
+        <v>7</v>
+      </c>
+      <c r="C981">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>11</v>
+      </c>
+      <c r="B982" t="s">
+        <v>7</v>
+      </c>
+      <c r="C982">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>11</v>
+      </c>
+      <c r="B983" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>11</v>
+      </c>
+      <c r="B984" t="s">
+        <v>7</v>
+      </c>
+      <c r="C984">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>11</v>
+      </c>
+      <c r="B985" t="s">
+        <v>7</v>
+      </c>
+      <c r="C985">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>11</v>
+      </c>
+      <c r="B986" t="s">
+        <v>7</v>
+      </c>
+      <c r="C986">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>11</v>
+      </c>
+      <c r="B987" t="s">
+        <v>7</v>
+      </c>
+      <c r="C987">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>11</v>
+      </c>
+      <c r="B988" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>11</v>
+      </c>
+      <c r="B989" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>11</v>
+      </c>
+      <c r="B990" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>11</v>
+      </c>
+      <c r="B991" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>11</v>
+      </c>
+      <c r="B992" t="s">
+        <v>7</v>
+      </c>
+      <c r="C992">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>11</v>
+      </c>
+      <c r="B993" t="s">
+        <v>7</v>
+      </c>
+      <c r="C993">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>11</v>
+      </c>
+      <c r="B994" t="s">
+        <v>7</v>
+      </c>
+      <c r="C994">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>11</v>
+      </c>
+      <c r="B995" t="s">
+        <v>7</v>
+      </c>
+      <c r="C995">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>11</v>
+      </c>
+      <c r="B996" t="s">
+        <v>7</v>
+      </c>
+      <c r="C996">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>11</v>
+      </c>
+      <c r="B997" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>11</v>
+      </c>
+      <c r="B998" t="s">
+        <v>7</v>
+      </c>
+      <c r="C998">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>11</v>
+      </c>
+      <c r="B999" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1000">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1001">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1002">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1004">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1007">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1013">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1014">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1015">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1016">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1017">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1019">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1021">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1022">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1023">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1024">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1025">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1026">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1027">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1028">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1030">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1031">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1033">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1034">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1035">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1036">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1038">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1039">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1040">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1041">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1042">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1043">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E207DE38-85DD-A74C-AD6A-2DBCA32D3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC924FF-5BF4-9149-AF42-761B5B52AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1540" windowWidth="28520" windowHeight="14020" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="920" yWindow="1940" windowWidth="28520" windowHeight="14020" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C1043"/>
+  <dimension ref="A1:C1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
-      <selection activeCell="B857" sqref="B857:B1043"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
+      <selection activeCell="B1101" sqref="B1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11919,6 +11919,567 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>2025</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1044">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>2025</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1045">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>2025</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1046">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>2025</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1047">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>2025</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1048">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>2025</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1049">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>2025</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1050">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>2025</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1051">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>2025</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1052">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>2025</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1053">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>2025</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1054">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>2025</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>2025</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1056">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>2025</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1057">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>2025</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1058">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>2025</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1059">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>2025</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1060">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>2025</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1061">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>2025</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1062">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>2025</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1063">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>2025</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1064">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>2025</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1065">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>2025</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>2025</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1067">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>2025</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1068">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>2025</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>2025</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1070">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>2025</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1071">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>2025</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1072">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>2025</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>2025</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1074">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>2025</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1075">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>2025</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1076">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>2025</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1077">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>2025</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1078">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>2025</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1079">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>2025</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>2025</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1081">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>2025</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1082">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>2025</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1083">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>2025</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>2025</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>2025</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1086">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>2025</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1087">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>2025</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1088">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>2025</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>2025</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1090">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>2025</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1091">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>2025</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1092">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>2025</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1093">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>2025</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1094">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC924FF-5BF4-9149-AF42-761B5B52AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53513FA1-926B-AA47-8576-04D606EDA7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1940" windowWidth="28520" windowHeight="14020" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
+    <workbookView xWindow="920" yWindow="1940" windowWidth="21080" windowHeight="15280" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C1094"/>
+  <dimension ref="A1:C1127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1080" workbookViewId="0">
-      <selection activeCell="B1101" sqref="B1101"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1125" sqref="B1125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12480,6 +12480,369 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>2025</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1095">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>2025</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>2025</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1097">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>2025</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1098">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>2025</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1099">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>2025</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>2025</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1101">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>2025</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1102">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>2025</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1103">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>2025</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>2025</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1105">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>2025</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1106">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>2025</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>2025</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>2025</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>2025</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1110">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>2025</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>2025</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>2025</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1113">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>2025</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>2025</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1115">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>2025</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1116">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>2025</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>2025</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>2025</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1119">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>2025</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1120">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>2025</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>2025</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1122">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>2025</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1123">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>2025</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1124">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>2025</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1125">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>2025</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1126">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>2025</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1127">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_docs/grades.xlsx
+++ b/_docs/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/archive/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53513FA1-926B-AA47-8576-04D606EDA7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF4F5D-64A4-F84D-BBA6-CE1EE34262E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1940" windowWidth="21080" windowHeight="15280" xr2:uid="{56F68AFB-79FC-2E48-BB60-E7104B640CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920AA11-A75E-2E45-9C61-C279847E759F}">
-  <dimension ref="A1:C1127"/>
+  <dimension ref="A1:C1136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1125" sqref="B1125"/>
+    <sheetView tabSelected="1" topLeftCell="A1117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1136" sqref="D1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12843,6 +12843,105 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>2025</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>2025</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1129">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>2025</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>2025</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>2025</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>2025</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>2025</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>2025</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>2025</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1136">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
